--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/word_level_predictions_42.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -3258,312 +3258,312 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>5</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>5</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>5</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>4</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>5</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5338,156 +5338,156 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>10</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>10</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>2</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>9</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>13</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>10</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12982,312 +12982,312 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" t="n">
         <v>21</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>Forward</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E242" s="2" t="inlineStr">
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F242" s="2" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G242" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" s="2" t="inlineStr">
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>21</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E243" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F243" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>21</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
+      <c r="D244" t="n">
         <v>2</v>
       </c>
-      <c r="E244" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F244" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>21</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>3</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F245" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>21</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>4</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F246" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>21</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>5</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G248" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13606,312 +13606,312 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>22</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" s="2" t="inlineStr">
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F254" s="2" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>22</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>22</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>2</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>22</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>3</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>22</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>4</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>22</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>5</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/42/word_level_predictions_42.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -3258,312 +3258,312 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="D56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5338,156 +5338,156 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="D96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>13</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>13</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>9</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>13</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>10</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F148" s="2" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12982,312 +12982,312 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>Forward</t>
         </is>
       </c>
-      <c r="D242" t="n">
-        <v>0</v>
-      </c>
-      <c r="E242" t="inlineStr">
+      <c r="D242" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>1</v>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="D243" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="E244" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F244" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F245" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F246" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13606,312 +13606,312 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" t="inlineStr">
+      <c r="D254" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D255" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="D255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
